--- a/words-list.xlsx
+++ b/words-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhourongrong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhourongrong\Documents\GitHub\2020064-words-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963B293-7AA2-401B-9712-54A552167A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0498B-DE87-40E9-9BF5-24EB2105C2F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>百度百科词条</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,12 +539,28 @@
     <t>资源状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应Sheet2各自内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,13 +620,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -635,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,6 +679,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -673,16 +703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -697,7 +727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6062663" y="1143000"/>
+          <a:off x="9367839" y="109537"/>
           <a:ext cx="3709987" cy="1819275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -1050,10 +1080,11 @@
     <col min="4" max="4" width="20.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.06640625" style="5"/>
     <col min="6" max="6" width="23.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="5"/>
+    <col min="7" max="7" width="9.06640625" style="7"/>
+    <col min="8" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
@@ -1069,12 +1100,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.4" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -1125,12 +1156,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1163,8 +1194,11 @@
       <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1180,8 +1214,11 @@
       <c r="F9" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
@@ -1197,8 +1234,11 @@
       <c r="F10" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
@@ -1214,8 +1254,11 @@
       <c r="F11" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
@@ -1232,7 +1275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1249,7 +1292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>86</v>
       </c>
@@ -1269,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32888305-9B7D-43F9-8E18-35938E97F772}">
   <dimension ref="B2:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/words-list.xlsx
+++ b/words-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhourongrong\Documents\GitHub\2020064-words-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0498B-DE87-40E9-9BF5-24EB2105C2F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2CF05-4D0B-4BB9-B322-0FF6C5CB5E18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>百度百科词条</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,26 @@
   </si>
   <si>
     <t>对应Sheet2各自内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10W/43W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13W/15W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W/18W(主要做爬虫开发,词并没有完全爬)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -681,6 +701,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -703,16 +724,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -727,7 +748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9367839" y="109537"/>
+          <a:off x="10239376" y="862012"/>
           <a:ext cx="3709987" cy="1819275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1066,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1081,10 +1102,11 @@
     <col min="5" max="5" width="9.06640625" style="5"/>
     <col min="6" max="6" width="23.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" style="7"/>
-    <col min="8" max="16384" width="9.06640625" style="5"/>
+    <col min="8" max="8" width="18.19921875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
@@ -1099,13 +1121,19 @@
       <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -1156,12 +1184,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1217,8 +1245,14 @@
       <c r="G9" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
@@ -1237,8 +1271,14 @@
       <c r="G10" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
@@ -1257,8 +1297,11 @@
       <c r="G11" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>69</v>
       </c>
@@ -1275,7 +1318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1292,7 +1335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>86</v>
       </c>

--- a/words-list.xlsx
+++ b/words-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhourongrong\Documents\GitHub\2020064-words-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2CF05-4D0B-4BB9-B322-0FF6C5CB5E18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C993798-8943-404A-9348-BB5E3755A040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,6 @@
     <t>港交所证券术语词汇：</t>
   </si>
   <si>
-    <t>10W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,10 +444,6 @@
   </si>
   <si>
     <t>保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,15 +556,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10W/43W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13W/15W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1W/18W(主要做爬虫开发,词并没有完全爬)</t>
+    <t>25W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12W/43W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18W/20W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22W/25W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,50 +1090,50 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="5"/>
-    <col min="2" max="2" width="18.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="5"/>
-    <col min="4" max="4" width="20.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="5"/>
-    <col min="6" max="6" width="23.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="7"/>
-    <col min="8" max="8" width="18.19921875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="5"/>
+    <col min="1" max="1" width="9.125" style="5"/>
+    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="5"/>
+    <col min="4" max="4" width="20.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="5"/>
+    <col min="6" max="6" width="23.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="7"/>
+    <col min="8" max="8" width="18.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1144,13 +1144,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1161,35 +1161,35 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1200,13 +1200,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1217,16 +1217,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>96</v>
@@ -1252,24 +1252,24 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>97</v>
@@ -1278,69 +1278,72 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1359,415 +1362,415 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>65</v>
       </c>
